--- a/files/LCA_scenarios.xlsx
+++ b/files/LCA_scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\05_LCA\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA607751-2C61-4F72-937F-1434F217A9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0846CAE2-BE3F-4749-B6B5-23502F00D4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="930" windowWidth="28770" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="27" r:id="rId1"/>
@@ -28,11 +28,8 @@
     <sheet name="Step12" sheetId="15" r:id="rId13"/>
     <sheet name="Step13" sheetId="16" r:id="rId14"/>
     <sheet name="Step14" sheetId="23" r:id="rId15"/>
-    <sheet name="Step15" sheetId="32" r:id="rId16"/>
-    <sheet name="Step16" sheetId="25" r:id="rId17"/>
-    <sheet name="Step17" sheetId="33" r:id="rId18"/>
-    <sheet name="Step18" sheetId="26" r:id="rId19"/>
-    <sheet name="Step19" sheetId="34" r:id="rId20"/>
+    <sheet name="Step15" sheetId="25" r:id="rId16"/>
+    <sheet name="Step16" sheetId="26" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="351">
   <si>
     <t>natural_gas</t>
   </si>
@@ -459,9 +456,6 @@
     <t>3 step, 2 x 8 runs each</t>
   </si>
   <si>
-    <t>HadCM3-A2 2050 / 2080</t>
-  </si>
-  <si>
     <t>a_a_2126_dg_init</t>
   </si>
   <si>
@@ -657,150 +651,6 @@
     <t>i_j_2126_dsf_max</t>
   </si>
   <si>
-    <t>n_b_2126_dg0_cc2050</t>
-  </si>
-  <si>
-    <t>n_c_2126_dg4_cc2050</t>
-  </si>
-  <si>
-    <t>n_d_2126_dg5_cc2050</t>
-  </si>
-  <si>
-    <t>n_e_2126_dg6_cc2050</t>
-  </si>
-  <si>
-    <t>n_f_2126_tg4_cc2050</t>
-  </si>
-  <si>
-    <t>n_g_2126_tg5_cc2050</t>
-  </si>
-  <si>
-    <t>n_h_2126_tg6_cc2050</t>
-  </si>
-  <si>
-    <t>p_a_2124_dg_init_cc2050</t>
-  </si>
-  <si>
-    <t>p_b_2124_dg0_cc2050</t>
-  </si>
-  <si>
-    <t>p_c_2124_dg4_cc2050</t>
-  </si>
-  <si>
-    <t>p_d_2124_dg5_cc2050</t>
-  </si>
-  <si>
-    <t>p_e_2124_dg6_cc2050</t>
-  </si>
-  <si>
-    <t>p_f_2124_tg4_cc2050</t>
-  </si>
-  <si>
-    <t>p_g_2124_tg5_cc2050</t>
-  </si>
-  <si>
-    <t>p_h_2124_tg6_cc2050</t>
-  </si>
-  <si>
-    <t>r_a_1927_dg_init_cc2050</t>
-  </si>
-  <si>
-    <t>r_b_1927_dg0_cc2050</t>
-  </si>
-  <si>
-    <t>r_c_1927_dg4_cc2050</t>
-  </si>
-  <si>
-    <t>r_d_1927_dg5_cc2050</t>
-  </si>
-  <si>
-    <t>r_e_1927_dg6_cc2050</t>
-  </si>
-  <si>
-    <t>r_f_1927_tg4_cc2050</t>
-  </si>
-  <si>
-    <t>r_g_1927_tg5_cc2050</t>
-  </si>
-  <si>
-    <t>r_h_1927_tg6_cc2050</t>
-  </si>
-  <si>
-    <t>s_a_1927_dg_init_cc2080</t>
-  </si>
-  <si>
-    <t>s_b_1927_dg0_cc2080</t>
-  </si>
-  <si>
-    <t>s_c_1927_dg4_cc2080</t>
-  </si>
-  <si>
-    <t>s_d_1927_dg5_cc2080</t>
-  </si>
-  <si>
-    <t>s_e_1927_dg6_cc2080</t>
-  </si>
-  <si>
-    <t>s_f_1927_tg4_cc2080</t>
-  </si>
-  <si>
-    <t>s_g_1927_tg5_cc2080</t>
-  </si>
-  <si>
-    <t>s_h_1927_tg6_cc2080</t>
-  </si>
-  <si>
-    <t>q_a_2124_dg_init_cc2080</t>
-  </si>
-  <si>
-    <t>q_b_2124_dg0_cc2080</t>
-  </si>
-  <si>
-    <t>q_c_2124_dg4_cc2080</t>
-  </si>
-  <si>
-    <t>q_d_2124_dg5_cc2080</t>
-  </si>
-  <si>
-    <t>q_e_2124_dg6_cc2080</t>
-  </si>
-  <si>
-    <t>q_f_2124_tg4_cc2080</t>
-  </si>
-  <si>
-    <t>q_g_2124_tg5_cc2080</t>
-  </si>
-  <si>
-    <t>q_h_2124_tg6_cc2080</t>
-  </si>
-  <si>
-    <t>o_b_2126_dg0_cc2080</t>
-  </si>
-  <si>
-    <t>o_c_2126_dg4_cc2080</t>
-  </si>
-  <si>
-    <t>o_d_2126_dg5_cc2080</t>
-  </si>
-  <si>
-    <t>o_e_2126_dg6_cc2080</t>
-  </si>
-  <si>
-    <t>o_f_2126_tg4_cc2080</t>
-  </si>
-  <si>
-    <t>o_g_2126_tg5_cc2080</t>
-  </si>
-  <si>
-    <t>o_h_2126_tg6_cc2080</t>
-  </si>
-  <si>
-    <t>o_a_2126_dg_init_cc2080</t>
-  </si>
-  <si>
-    <t>n_a_2126_dg_init_cc2050</t>
-  </si>
-  <si>
     <t>int_shdg_device</t>
   </si>
   <si>
@@ -1170,24 +1020,6 @@
     <t>6.5 m²/p.</t>
   </si>
   <si>
-    <t>n-o</t>
-  </si>
-  <si>
-    <t>p-q</t>
-  </si>
-  <si>
-    <t>r-s</t>
-  </si>
-  <si>
-    <t>14-15</t>
-  </si>
-  <si>
-    <t>16-17</t>
-  </si>
-  <si>
-    <t>18-19</t>
-  </si>
-  <si>
     <t>q</t>
   </si>
   <si>
@@ -1210,6 +1042,90 @@
   </si>
   <si>
     <t>Denmark</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>2069-2098 - RCP 8.5</t>
+  </si>
+  <si>
+    <t>n_a_2126_dg_init_cc</t>
+  </si>
+  <si>
+    <t>n_b_2126_dg0_cc</t>
+  </si>
+  <si>
+    <t>n_c_2126_dg4_cc</t>
+  </si>
+  <si>
+    <t>n_d_2126_dg5_cc</t>
+  </si>
+  <si>
+    <t>n_e_2126_dg6_cc</t>
+  </si>
+  <si>
+    <t>n_f_2126_tg4_cc</t>
+  </si>
+  <si>
+    <t>n_g_2126_tg5_cc</t>
+  </si>
+  <si>
+    <t>n_h_2126_tg6_cc</t>
+  </si>
+  <si>
+    <t>o_a_2124_dg_init_cc</t>
+  </si>
+  <si>
+    <t>o_b_2124_dg0_cc</t>
+  </si>
+  <si>
+    <t>o_c_2124_dg4_cc</t>
+  </si>
+  <si>
+    <t>o_d_2124_dg5_cc</t>
+  </si>
+  <si>
+    <t>o_e_2124_dg6_cc</t>
+  </si>
+  <si>
+    <t>o_f_2124_tg4_cc</t>
+  </si>
+  <si>
+    <t>o_g_2124_tg5_cc</t>
+  </si>
+  <si>
+    <t>o_h_2124_tg6_cc</t>
+  </si>
+  <si>
+    <t>p_a_1927_dg_init_cc</t>
+  </si>
+  <si>
+    <t>p_b_1927_dg0_cc</t>
+  </si>
+  <si>
+    <t>p_c_1927_dg4_cc</t>
+  </si>
+  <si>
+    <t>p_d_1927_dg5_cc</t>
+  </si>
+  <si>
+    <t>p_e_1927_dg6_cc</t>
+  </si>
+  <si>
+    <t>p_f_1927_tg4_cc</t>
+  </si>
+  <si>
+    <t>p_g_1927_tg5_cc</t>
+  </si>
+  <si>
+    <t>p_h_1927_tg6_cc</t>
   </si>
 </sst>
 </file>
@@ -1854,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE98452-F707-4295-935B-FDBFB827C3DA}">
   <dimension ref="A1:Q208"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1948,13 +1864,13 @@
         <v>48</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="F10" s="13"/>
       <c r="H10" s="12"/>
@@ -1989,7 +1905,7 @@
         <v>49</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>50</v>
@@ -2035,7 +1951,7 @@
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>2</v>
@@ -2154,7 +2070,7 @@
         <v>57</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -2362,19 +2278,19 @@
         <v>64</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="G38" s="12"/>
       <c r="I38" s="12"/>
@@ -2408,16 +2324,16 @@
         <v>4</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="I40" s="12"/>
     </row>
@@ -2481,7 +2397,7 @@
     <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="27" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>2</v>
@@ -2773,7 +2689,7 @@
         <v>74</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
@@ -2829,7 +2745,7 @@
         <v>75</v>
       </c>
       <c r="C69" s="36" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="D69" s="24"/>
       <c r="E69" s="25"/>
@@ -2986,7 +2902,7 @@
     <row r="80" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12"/>
       <c r="B80" s="27" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="C80" s="31" t="s">
         <v>2</v>
@@ -3134,25 +3050,25 @@
         <v>122</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="L91" s="12"/>
       <c r="M91" s="12"/>
@@ -3419,7 +3335,7 @@
     <row r="106" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
       <c r="B106" s="40" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="C106" s="41" t="s">
         <v>3</v>
@@ -3482,10 +3398,10 @@
         <v>94</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="E112" s="12"/>
       <c r="F112" s="13"/>
@@ -3578,7 +3494,7 @@
     </row>
     <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="40" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="C119" s="24" t="s">
         <v>2</v>
@@ -3771,10 +3687,10 @@
         <v>94</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="E137" s="12"/>
       <c r="F137" s="13"/>
@@ -3802,10 +3718,10 @@
         <v>4</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="D139" s="19" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="E139" s="19"/>
       <c r="F139" s="28"/>
@@ -3849,7 +3765,7 @@
         <v>61</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="D142" s="25" t="s">
         <v>62</v>
@@ -3962,7 +3878,7 @@
     <row r="151" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="12"/>
       <c r="B151" s="27" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="C151" s="31" t="s">
         <v>3</v>
@@ -4087,20 +4003,20 @@
     </row>
     <row r="162" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="11">
-        <f>3*2*8</f>
-        <v>48</v>
+        <f>3*8</f>
+        <v>24</v>
       </c>
       <c r="B162" s="27" t="s">
         <v>126</v>
       </c>
       <c r="C162" s="43" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="D162" s="20" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="E162" s="11" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="F162" s="13"/>
       <c r="G162" s="12"/>
@@ -4110,14 +4026,14 @@
       <c r="B163" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C163" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="D163" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="E163" s="18" t="s">
-        <v>369</v>
+      <c r="C163" s="18">
+        <v>14</v>
+      </c>
+      <c r="D163" s="18">
+        <v>15</v>
+      </c>
+      <c r="E163" s="18">
+        <v>16</v>
       </c>
       <c r="F163" s="12"/>
       <c r="G163" s="12"/>
@@ -4178,7 +4094,7 @@
     <row r="167" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="12"/>
       <c r="B167" s="27" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="C167" s="21" t="s">
         <v>3</v>
@@ -4241,13 +4157,13 @@
         <v>106</v>
       </c>
       <c r="C170" s="25" t="s">
-        <v>127</v>
+        <v>326</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>127</v>
+        <v>326</v>
       </c>
       <c r="E170" s="25" t="s">
-        <v>127</v>
+        <v>326</v>
       </c>
       <c r="F170" s="12"/>
       <c r="G170" s="12"/>
@@ -4465,22 +4381,22 @@
         <v>109</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>370</v>
+        <v>315</v>
       </c>
       <c r="D187" s="20" t="s">
-        <v>371</v>
+        <v>316</v>
       </c>
       <c r="E187" s="11" t="s">
-        <v>372</v>
+        <v>317</v>
       </c>
       <c r="F187" s="11" t="s">
-        <v>373</v>
+        <v>318</v>
       </c>
       <c r="G187" s="11" t="s">
-        <v>374</v>
+        <v>319</v>
       </c>
       <c r="H187" s="11" t="s">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="J187" s="13"/>
       <c r="K187" s="14"/>
@@ -4536,7 +4452,7 @@
         <v>114</v>
       </c>
       <c r="H189" s="19" t="s">
-        <v>376</v>
+        <v>321</v>
       </c>
       <c r="M189" s="12"/>
     </row>
@@ -4586,7 +4502,7 @@
         <v>119</v>
       </c>
       <c r="H191" s="23" t="s">
-        <v>377</v>
+        <v>322</v>
       </c>
       <c r="M191" s="12"/>
     </row>
@@ -4817,6 +4733,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="B81:B85"/>
     <mergeCell ref="A159:I159"/>
     <mergeCell ref="B177:B181"/>
     <mergeCell ref="A184:I184"/>
@@ -4826,13 +4749,6 @@
     <mergeCell ref="B127:B131"/>
     <mergeCell ref="A134:I134"/>
     <mergeCell ref="B152:B156"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="B53:B59"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4881,13 +4797,13 @@
         <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>7</v>
@@ -4934,7 +4850,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>323</v>
+        <v>274</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>22</v>
@@ -5001,7 +4917,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>37</v>
@@ -5068,7 +4984,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>38</v>
@@ -5135,7 +5051,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>39</v>
@@ -5202,7 +5118,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>44</v>
@@ -5269,7 +5185,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>45</v>
@@ -5336,7 +5252,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>43</v>
@@ -5403,7 +5319,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>46</v>
@@ -5470,7 +5386,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>46</v>
@@ -5537,7 +5453,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>46</v>
@@ -5849,13 +5765,13 @@
         <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>7</v>
@@ -5902,7 +5818,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>22</v>
@@ -5969,7 +5885,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>21</v>
@@ -6036,7 +5952,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>326</v>
+        <v>277</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>31</v>
@@ -6103,7 +6019,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>29</v>
@@ -6170,7 +6086,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>28</v>
@@ -6237,7 +6153,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>36</v>
@@ -6304,7 +6220,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>32</v>
@@ -6371,7 +6287,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>30</v>
@@ -6574,13 +6490,13 @@
         <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>7</v>
@@ -6627,7 +6543,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>22</v>
@@ -6694,7 +6610,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>21</v>
@@ -6761,7 +6677,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>31</v>
@@ -6828,7 +6744,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>29</v>
@@ -6895,7 +6811,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>28</v>
@@ -6962,7 +6878,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>36</v>
@@ -7029,7 +6945,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>32</v>
@@ -7096,7 +7012,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>30</v>
@@ -7300,13 +7216,13 @@
         <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>7</v>
@@ -7353,7 +7269,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>22</v>
@@ -7420,7 +7336,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>21</v>
@@ -7487,7 +7403,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>31</v>
@@ -7554,7 +7470,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>29</v>
@@ -7621,7 +7537,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>28</v>
@@ -7688,7 +7604,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>36</v>
@@ -7755,7 +7671,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>32</v>
@@ -7822,7 +7738,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>30</v>
@@ -8018,13 +7934,13 @@
         <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>7</v>
@@ -8071,7 +7987,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>22</v>
@@ -8138,7 +8054,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>21</v>
@@ -8205,7 +8121,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>31</v>
@@ -8272,7 +8188,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>29</v>
@@ -8339,7 +8255,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>28</v>
@@ -8406,7 +8322,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>36</v>
@@ -8473,7 +8389,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>32</v>
@@ -8540,7 +8456,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>30</v>
@@ -8701,7 +8617,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3AE9DF-9816-4B9F-88EA-8F1D39A5A7D1}">
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8738,13 +8656,13 @@
         <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>7</v>
@@ -8791,7 +8709,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>240</v>
+        <v>327</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>22</v>
@@ -8858,7 +8776,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>21</v>
@@ -8925,7 +8843,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>194</v>
+        <v>329</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>31</v>
@@ -8992,7 +8910,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>195</v>
+        <v>330</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>29</v>
@@ -9059,7 +8977,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>196</v>
+        <v>331</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>28</v>
@@ -9126,7 +9044,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>197</v>
+        <v>332</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>36</v>
@@ -9193,7 +9111,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>198</v>
+        <v>333</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>32</v>
@@ -9260,7 +9178,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>199</v>
+        <v>334</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>30</v>
@@ -9401,713 +9319,12 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5F410E-4B71-46E7-AF3C-23EC8EC1F49C}">
-  <dimension ref="A1:W9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" customWidth="1"/>
-    <col min="10" max="17" width="13.42578125" style="1" customWidth="1"/>
-    <col min="18" max="21" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>1</v>
-      </c>
-      <c r="I2" s="8">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8">
-        <v>0</v>
-      </c>
-      <c r="K2" s="8">
-        <v>0</v>
-      </c>
-      <c r="L2" s="8">
-        <v>1</v>
-      </c>
-      <c r="M2" s="8">
-        <v>0</v>
-      </c>
-      <c r="N2" s="8">
-        <v>0</v>
-      </c>
-      <c r="O2" s="8">
-        <v>0</v>
-      </c>
-      <c r="P2" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>0</v>
-      </c>
-      <c r="R2" s="8">
-        <v>0</v>
-      </c>
-      <c r="S2" s="8">
-        <v>0</v>
-      </c>
-      <c r="T2" s="8">
-        <v>0</v>
-      </c>
-      <c r="U2" s="8">
-        <v>0</v>
-      </c>
-      <c r="V2" s="8">
-        <v>0</v>
-      </c>
-      <c r="W2" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8">
-        <v>0</v>
-      </c>
-      <c r="L3" s="8">
-        <v>1</v>
-      </c>
-      <c r="M3" s="8">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8">
-        <v>0</v>
-      </c>
-      <c r="O3" s="8">
-        <v>0</v>
-      </c>
-      <c r="P3" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>0</v>
-      </c>
-      <c r="R3" s="8">
-        <v>0</v>
-      </c>
-      <c r="S3" s="8">
-        <v>0</v>
-      </c>
-      <c r="T3" s="8">
-        <v>0</v>
-      </c>
-      <c r="U3" s="8">
-        <v>0</v>
-      </c>
-      <c r="V3" s="8">
-        <v>0</v>
-      </c>
-      <c r="W3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8">
-        <v>1</v>
-      </c>
-      <c r="N4" s="8">
-        <v>0</v>
-      </c>
-      <c r="O4" s="8">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>0</v>
-      </c>
-      <c r="R4" s="8">
-        <v>0</v>
-      </c>
-      <c r="S4" s="8">
-        <v>0</v>
-      </c>
-      <c r="T4" s="8">
-        <v>0</v>
-      </c>
-      <c r="U4" s="8">
-        <v>0</v>
-      </c>
-      <c r="V4" s="8">
-        <v>0</v>
-      </c>
-      <c r="W4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>1</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>1</v>
-      </c>
-      <c r="N5" s="8">
-        <v>0</v>
-      </c>
-      <c r="O5" s="8">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>0</v>
-      </c>
-      <c r="R5" s="8">
-        <v>0</v>
-      </c>
-      <c r="S5" s="8">
-        <v>0</v>
-      </c>
-      <c r="T5" s="8">
-        <v>0</v>
-      </c>
-      <c r="U5" s="8">
-        <v>0</v>
-      </c>
-      <c r="V5" s="8">
-        <v>0</v>
-      </c>
-      <c r="W5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8">
-        <v>0</v>
-      </c>
-      <c r="O6" s="8">
-        <v>1</v>
-      </c>
-      <c r="P6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>0</v>
-      </c>
-      <c r="R6" s="8">
-        <v>0</v>
-      </c>
-      <c r="S6" s="8">
-        <v>0</v>
-      </c>
-      <c r="T6" s="8">
-        <v>0</v>
-      </c>
-      <c r="U6" s="8">
-        <v>0</v>
-      </c>
-      <c r="V6" s="8">
-        <v>0</v>
-      </c>
-      <c r="W6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="O7" s="8">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>1</v>
-      </c>
-      <c r="R7" s="8">
-        <v>0</v>
-      </c>
-      <c r="S7" s="8">
-        <v>0</v>
-      </c>
-      <c r="T7" s="8">
-        <v>0</v>
-      </c>
-      <c r="U7" s="8">
-        <v>0</v>
-      </c>
-      <c r="V7" s="8">
-        <v>0</v>
-      </c>
-      <c r="W7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>1</v>
-      </c>
-      <c r="R8" s="8">
-        <v>0</v>
-      </c>
-      <c r="S8" s="8">
-        <v>0</v>
-      </c>
-      <c r="T8" s="8">
-        <v>0</v>
-      </c>
-      <c r="U8" s="8">
-        <v>0</v>
-      </c>
-      <c r="V8" s="8">
-        <v>0</v>
-      </c>
-      <c r="W8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8">
-        <v>0</v>
-      </c>
-      <c r="O9" s="8">
-        <v>0</v>
-      </c>
-      <c r="P9" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>1</v>
-      </c>
-      <c r="R9" s="8">
-        <v>0</v>
-      </c>
-      <c r="S9" s="8">
-        <v>0</v>
-      </c>
-      <c r="T9" s="8">
-        <v>0</v>
-      </c>
-      <c r="U9" s="8">
-        <v>0</v>
-      </c>
-      <c r="V9" s="8">
-        <v>0</v>
-      </c>
-      <c r="W9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="G2:H9 J2:M9">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:W9">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I9">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I9">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I9">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:I9">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:W9">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B3EE66-1D62-46EC-B4F6-68B8A193FD2D}">
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10144,13 +9361,13 @@
         <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>7</v>
@@ -10197,7 +9414,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>200</v>
+        <v>335</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>22</v>
@@ -10264,7 +9481,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>201</v>
+        <v>336</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>21</v>
@@ -10331,7 +9548,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>202</v>
+        <v>337</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>31</v>
@@ -10398,7 +9615,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>203</v>
+        <v>338</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>29</v>
@@ -10465,7 +9682,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>204</v>
+        <v>339</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>28</v>
@@ -10532,7 +9749,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>205</v>
+        <v>340</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>36</v>
@@ -10599,7 +9816,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>206</v>
+        <v>341</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>32</v>
@@ -10666,7 +9883,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>207</v>
+        <v>342</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>30</v>
@@ -10809,714 +10026,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B774074-4E73-4770-9844-AF5BC85C891C}">
-  <dimension ref="A1:W9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" customWidth="1"/>
-    <col min="10" max="17" width="13.42578125" style="1" customWidth="1"/>
-    <col min="18" max="21" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8">
-        <v>0</v>
-      </c>
-      <c r="K2" s="8">
-        <v>0</v>
-      </c>
-      <c r="L2" s="8">
-        <v>1</v>
-      </c>
-      <c r="M2" s="8">
-        <v>0</v>
-      </c>
-      <c r="N2" s="8">
-        <v>0</v>
-      </c>
-      <c r="O2" s="8">
-        <v>0</v>
-      </c>
-      <c r="P2" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>0</v>
-      </c>
-      <c r="R2" s="8">
-        <v>0</v>
-      </c>
-      <c r="S2" s="8">
-        <v>0</v>
-      </c>
-      <c r="T2" s="8">
-        <v>0</v>
-      </c>
-      <c r="U2" s="8">
-        <v>0</v>
-      </c>
-      <c r="V2" s="8">
-        <v>0</v>
-      </c>
-      <c r="W2" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8">
-        <v>0</v>
-      </c>
-      <c r="L3" s="8">
-        <v>1</v>
-      </c>
-      <c r="M3" s="8">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8">
-        <v>0</v>
-      </c>
-      <c r="O3" s="8">
-        <v>0</v>
-      </c>
-      <c r="P3" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>0</v>
-      </c>
-      <c r="R3" s="8">
-        <v>0</v>
-      </c>
-      <c r="S3" s="8">
-        <v>0</v>
-      </c>
-      <c r="T3" s="8">
-        <v>0</v>
-      </c>
-      <c r="U3" s="8">
-        <v>0</v>
-      </c>
-      <c r="V3" s="8">
-        <v>0</v>
-      </c>
-      <c r="W3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8">
-        <v>1</v>
-      </c>
-      <c r="N4" s="8">
-        <v>0</v>
-      </c>
-      <c r="O4" s="8">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>0</v>
-      </c>
-      <c r="R4" s="8">
-        <v>0</v>
-      </c>
-      <c r="S4" s="8">
-        <v>0</v>
-      </c>
-      <c r="T4" s="8">
-        <v>0</v>
-      </c>
-      <c r="U4" s="8">
-        <v>0</v>
-      </c>
-      <c r="V4" s="8">
-        <v>0</v>
-      </c>
-      <c r="W4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>1</v>
-      </c>
-      <c r="N5" s="8">
-        <v>0</v>
-      </c>
-      <c r="O5" s="8">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>0</v>
-      </c>
-      <c r="R5" s="8">
-        <v>0</v>
-      </c>
-      <c r="S5" s="8">
-        <v>0</v>
-      </c>
-      <c r="T5" s="8">
-        <v>0</v>
-      </c>
-      <c r="U5" s="8">
-        <v>0</v>
-      </c>
-      <c r="V5" s="8">
-        <v>0</v>
-      </c>
-      <c r="W5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8">
-        <v>0</v>
-      </c>
-      <c r="O6" s="8">
-        <v>1</v>
-      </c>
-      <c r="P6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>0</v>
-      </c>
-      <c r="R6" s="8">
-        <v>0</v>
-      </c>
-      <c r="S6" s="8">
-        <v>0</v>
-      </c>
-      <c r="T6" s="8">
-        <v>0</v>
-      </c>
-      <c r="U6" s="8">
-        <v>0</v>
-      </c>
-      <c r="V6" s="8">
-        <v>0</v>
-      </c>
-      <c r="W6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="O7" s="8">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>1</v>
-      </c>
-      <c r="R7" s="8">
-        <v>0</v>
-      </c>
-      <c r="S7" s="8">
-        <v>0</v>
-      </c>
-      <c r="T7" s="8">
-        <v>0</v>
-      </c>
-      <c r="U7" s="8">
-        <v>0</v>
-      </c>
-      <c r="V7" s="8">
-        <v>0</v>
-      </c>
-      <c r="W7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>1</v>
-      </c>
-      <c r="R8" s="8">
-        <v>0</v>
-      </c>
-      <c r="S8" s="8">
-        <v>0</v>
-      </c>
-      <c r="T8" s="8">
-        <v>0</v>
-      </c>
-      <c r="U8" s="8">
-        <v>0</v>
-      </c>
-      <c r="V8" s="8">
-        <v>0</v>
-      </c>
-      <c r="W8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8">
-        <v>0</v>
-      </c>
-      <c r="O9" s="8">
-        <v>0</v>
-      </c>
-      <c r="P9" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>1</v>
-      </c>
-      <c r="R9" s="8">
-        <v>0</v>
-      </c>
-      <c r="S9" s="8">
-        <v>0</v>
-      </c>
-      <c r="T9" s="8">
-        <v>0</v>
-      </c>
-      <c r="U9" s="8">
-        <v>0</v>
-      </c>
-      <c r="V9" s="8">
-        <v>0</v>
-      </c>
-      <c r="W9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="G2:H9 J2:M9">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:W9">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I9">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I9">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I9">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:I9">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:W9">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F6327A-EE87-49F6-AC94-A7C908ACB4D3}">
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11553,13 +10069,13 @@
         <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>7</v>
@@ -11606,7 +10122,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>208</v>
+        <v>343</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>22</v>
@@ -11673,7 +10189,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>209</v>
+        <v>344</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>21</v>
@@ -11740,7 +10256,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>210</v>
+        <v>345</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>31</v>
@@ -11807,7 +10323,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>211</v>
+        <v>346</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>29</v>
@@ -11874,7 +10390,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>212</v>
+        <v>347</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>28</v>
@@ -11941,7 +10457,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>213</v>
+        <v>348</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>36</v>
@@ -12008,7 +10524,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>214</v>
+        <v>349</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>32</v>
@@ -12075,7 +10591,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>215</v>
+        <v>350</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>30</v>
@@ -12256,13 +10772,13 @@
         <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>7</v>
@@ -12309,7 +10825,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>22</v>
@@ -12376,7 +10892,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>21</v>
@@ -12443,7 +10959,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>23</v>
@@ -12510,7 +11026,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>24</v>
@@ -12577,7 +11093,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>27</v>
@@ -12644,7 +11160,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>26</v>
@@ -12711,7 +11227,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>25</v>
@@ -12778,7 +11294,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>31</v>
@@ -12845,7 +11361,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>29</v>
@@ -12912,7 +11428,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>28</v>
@@ -12979,7 +11495,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>33</v>
@@ -13046,7 +11562,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>34</v>
@@ -13113,7 +11629,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>35</v>
@@ -13180,7 +11696,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>36</v>
@@ -13247,7 +11763,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>32</v>
@@ -13314,7 +11830,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>30</v>
@@ -13467,691 +11983,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE146BFB-0E57-4E52-A452-B41EB8004642}">
-  <dimension ref="A1:W9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" customWidth="1"/>
-    <col min="10" max="17" width="13.42578125" style="1" customWidth="1"/>
-    <col min="18" max="21" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8">
-        <v>1</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8">
-        <v>0</v>
-      </c>
-      <c r="K2" s="8">
-        <v>0</v>
-      </c>
-      <c r="L2" s="8">
-        <v>1</v>
-      </c>
-      <c r="M2" s="8">
-        <v>0</v>
-      </c>
-      <c r="N2" s="8">
-        <v>0</v>
-      </c>
-      <c r="O2" s="8">
-        <v>0</v>
-      </c>
-      <c r="P2" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>0</v>
-      </c>
-      <c r="R2" s="8">
-        <v>0</v>
-      </c>
-      <c r="S2" s="8">
-        <v>0</v>
-      </c>
-      <c r="T2" s="8">
-        <v>0</v>
-      </c>
-      <c r="U2" s="8">
-        <v>0</v>
-      </c>
-      <c r="V2" s="8">
-        <v>0</v>
-      </c>
-      <c r="W2" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8">
-        <v>1</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8">
-        <v>0</v>
-      </c>
-      <c r="L3" s="8">
-        <v>1</v>
-      </c>
-      <c r="M3" s="8">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8">
-        <v>0</v>
-      </c>
-      <c r="O3" s="8">
-        <v>0</v>
-      </c>
-      <c r="P3" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>0</v>
-      </c>
-      <c r="R3" s="8">
-        <v>0</v>
-      </c>
-      <c r="S3" s="8">
-        <v>0</v>
-      </c>
-      <c r="T3" s="8">
-        <v>0</v>
-      </c>
-      <c r="U3" s="8">
-        <v>0</v>
-      </c>
-      <c r="V3" s="8">
-        <v>0</v>
-      </c>
-      <c r="W3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8">
-        <v>1</v>
-      </c>
-      <c r="N4" s="8">
-        <v>0</v>
-      </c>
-      <c r="O4" s="8">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>0</v>
-      </c>
-      <c r="R4" s="8">
-        <v>0</v>
-      </c>
-      <c r="S4" s="8">
-        <v>0</v>
-      </c>
-      <c r="T4" s="8">
-        <v>0</v>
-      </c>
-      <c r="U4" s="8">
-        <v>0</v>
-      </c>
-      <c r="V4" s="8">
-        <v>0</v>
-      </c>
-      <c r="W4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>1</v>
-      </c>
-      <c r="N5" s="8">
-        <v>0</v>
-      </c>
-      <c r="O5" s="8">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>0</v>
-      </c>
-      <c r="R5" s="8">
-        <v>0</v>
-      </c>
-      <c r="S5" s="8">
-        <v>0</v>
-      </c>
-      <c r="T5" s="8">
-        <v>0</v>
-      </c>
-      <c r="U5" s="8">
-        <v>0</v>
-      </c>
-      <c r="V5" s="8">
-        <v>0</v>
-      </c>
-      <c r="W5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8">
-        <v>0</v>
-      </c>
-      <c r="O6" s="8">
-        <v>1</v>
-      </c>
-      <c r="P6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>0</v>
-      </c>
-      <c r="R6" s="8">
-        <v>0</v>
-      </c>
-      <c r="S6" s="8">
-        <v>0</v>
-      </c>
-      <c r="T6" s="8">
-        <v>0</v>
-      </c>
-      <c r="U6" s="8">
-        <v>0</v>
-      </c>
-      <c r="V6" s="8">
-        <v>0</v>
-      </c>
-      <c r="W6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="O7" s="8">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>1</v>
-      </c>
-      <c r="R7" s="8">
-        <v>0</v>
-      </c>
-      <c r="S7" s="8">
-        <v>0</v>
-      </c>
-      <c r="T7" s="8">
-        <v>0</v>
-      </c>
-      <c r="U7" s="8">
-        <v>0</v>
-      </c>
-      <c r="V7" s="8">
-        <v>0</v>
-      </c>
-      <c r="W7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>1</v>
-      </c>
-      <c r="R8" s="8">
-        <v>0</v>
-      </c>
-      <c r="S8" s="8">
-        <v>0</v>
-      </c>
-      <c r="T8" s="8">
-        <v>0</v>
-      </c>
-      <c r="U8" s="8">
-        <v>0</v>
-      </c>
-      <c r="V8" s="8">
-        <v>0</v>
-      </c>
-      <c r="W8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8">
-        <v>0</v>
-      </c>
-      <c r="O9" s="8">
-        <v>0</v>
-      </c>
-      <c r="P9" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>1</v>
-      </c>
-      <c r="R9" s="8">
-        <v>0</v>
-      </c>
-      <c r="S9" s="8">
-        <v>0</v>
-      </c>
-      <c r="T9" s="8">
-        <v>0</v>
-      </c>
-      <c r="U9" s="8">
-        <v>0</v>
-      </c>
-      <c r="V9" s="8">
-        <v>0</v>
-      </c>
-      <c r="W9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="G2:H9 J2:M9">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:W9">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I9">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:I9">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:W9">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2054C52B-FA63-4B57-9517-C1BA2EEF82AE}">
   <dimension ref="A1:W18"/>
@@ -14195,13 +12026,13 @@
         <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>7</v>
@@ -14248,7 +12079,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>22</v>
@@ -14315,7 +12146,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>21</v>
@@ -14382,7 +12213,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>23</v>
@@ -14449,7 +12280,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>24</v>
@@ -14516,7 +12347,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>27</v>
@@ -14583,7 +12414,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>26</v>
@@ -14650,7 +12481,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>25</v>
@@ -14717,7 +12548,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>31</v>
@@ -14784,7 +12615,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>29</v>
@@ -14851,7 +12682,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>28</v>
@@ -14918,7 +12749,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>33</v>
@@ -14985,7 +12816,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>34</v>
@@ -15052,7 +12883,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>35</v>
@@ -15119,7 +12950,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>36</v>
@@ -15186,7 +13017,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>32</v>
@@ -15253,7 +13084,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>30</v>
@@ -15484,13 +13315,13 @@
         <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>7</v>
@@ -15537,7 +13368,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>22</v>
@@ -15604,7 +13435,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>21</v>
@@ -15671,7 +13502,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>23</v>
@@ -15738,7 +13569,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>24</v>
@@ -15805,7 +13636,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>27</v>
@@ -15872,7 +13703,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>26</v>
@@ -15939,7 +13770,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>25</v>
@@ -16006,7 +13837,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>31</v>
@@ -16073,7 +13904,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>29</v>
@@ -16140,7 +13971,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>28</v>
@@ -16207,7 +14038,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>33</v>
@@ -16274,7 +14105,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>34</v>
@@ -16341,7 +14172,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>35</v>
@@ -16408,7 +14239,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>36</v>
@@ -16475,7 +14306,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>32</v>
@@ -16542,7 +14373,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>30</v>
@@ -16791,13 +14622,13 @@
         <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>7</v>
@@ -16844,7 +14675,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>22</v>
@@ -16911,7 +14742,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>21</v>
@@ -16978,7 +14809,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>23</v>
@@ -17045,7 +14876,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>24</v>
@@ -17112,7 +14943,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>27</v>
@@ -17179,7 +15010,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>26</v>
@@ -17246,7 +15077,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>25</v>
@@ -17313,7 +15144,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>31</v>
@@ -17380,7 +15211,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>29</v>
@@ -17447,7 +15278,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>28</v>
@@ -17514,7 +15345,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>33</v>
@@ -17581,7 +15412,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>34</v>
@@ -17648,7 +15479,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>35</v>
@@ -17715,7 +15546,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>36</v>
@@ -17782,7 +15613,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>32</v>
@@ -17849,7 +15680,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>30</v>
@@ -18084,13 +15915,13 @@
         <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>7</v>
@@ -18137,7 +15968,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>22</v>
@@ -18204,7 +16035,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>21</v>
@@ -18271,7 +16102,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>23</v>
@@ -18338,7 +16169,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>278</v>
+        <v>229</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>24</v>
@@ -18405,7 +16236,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>27</v>
@@ -18472,7 +16303,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>280</v>
+        <v>231</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>26</v>
@@ -18539,7 +16370,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>25</v>
@@ -18606,7 +16437,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>31</v>
@@ -18673,7 +16504,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>29</v>
@@ -18740,7 +16571,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>28</v>
@@ -18807,7 +16638,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>33</v>
@@ -18874,7 +16705,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>34</v>
@@ -18941,7 +16772,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>287</v>
+        <v>238</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>35</v>
@@ -19008,7 +16839,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>36</v>
@@ -19075,7 +16906,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>32</v>
@@ -19142,7 +16973,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>30</v>
@@ -19382,13 +17213,13 @@
         <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>7</v>
@@ -19435,7 +17266,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>22</v>
@@ -19502,7 +17333,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>21</v>
@@ -19569,7 +17400,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>23</v>
@@ -19636,7 +17467,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>24</v>
@@ -19703,7 +17534,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>27</v>
@@ -19770,7 +17601,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>296</v>
+        <v>247</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>26</v>
@@ -19837,7 +17668,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>25</v>
@@ -19904,7 +17735,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>298</v>
+        <v>249</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>31</v>
@@ -19971,7 +17802,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>299</v>
+        <v>250</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>29</v>
@@ -20038,7 +17869,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>28</v>
@@ -20105,7 +17936,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>33</v>
@@ -20172,7 +18003,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>34</v>
@@ -20239,7 +18070,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>35</v>
@@ -20306,7 +18137,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>36</v>
@@ -20373,7 +18204,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>32</v>
@@ -20440,7 +18271,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>30</v>
@@ -20673,13 +18504,13 @@
         <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>7</v>
@@ -20726,7 +18557,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>22</v>
@@ -20793,7 +18624,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>21</v>
@@ -20860,7 +18691,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>23</v>
@@ -20927,7 +18758,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>24</v>
@@ -20994,7 +18825,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>27</v>
@@ -21061,7 +18892,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>26</v>
@@ -21128,7 +18959,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>313</v>
+        <v>264</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>25</v>
@@ -21195,7 +19026,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>314</v>
+        <v>265</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>31</v>
@@ -21262,7 +19093,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>315</v>
+        <v>266</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>29</v>
@@ -21329,7 +19160,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>316</v>
+        <v>267</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>28</v>
@@ -21396,7 +19227,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>33</v>
@@ -21463,7 +19294,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>34</v>
@@ -21530,7 +19361,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>35</v>
@@ -21597,7 +19428,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>36</v>
@@ -21664,7 +19495,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>32</v>
@@ -21731,7 +19562,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>30</v>
@@ -21964,13 +19795,13 @@
         <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>7</v>
@@ -22017,7 +19848,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>22</v>
@@ -22084,7 +19915,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>21</v>
@@ -22151,7 +19982,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>31</v>
@@ -22218,7 +20049,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>29</v>
@@ -22285,7 +20116,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>28</v>
@@ -22352,7 +20183,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>36</v>
@@ -22419,7 +20250,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>32</v>
@@ -22486,7 +20317,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>30</v>
